--- a/medicine/Psychotrope/Rhamnus_prinoides/Rhamnus_prinoides.xlsx
+++ b/medicine/Psychotrope/Rhamnus_prinoides/Rhamnus_prinoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhamnus prinoides est une espèce de plantes à fleurs dicotylédones de la famille des Rhamnaceae, sous-famille des Rhamnoideae, originaire d'Afrique et d'Arabie.
 C'est un arbuste ou un petit arbre pouvant atteindre huit mètres de haut, à feuilles persistantes, produisant des baies rouges. Le tronc peut atteindre de 15 à 25 cm de diamètre. Cet arbuste à diverse utilisations, notamment comme plante médicinale ou ornementale. Ses fruits sont comestibles et son bois peut être utilisé comme bois de chauffage.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, « prinoides », signifie « qui ressemble à prinus, en référence à la ressemblance de cet arbuste avec Quercus prinus, espèce de chênes à feuilles persistantes[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, « prinoides », signifie « qui ressemble à prinus, en référence à la ressemblance de cet arbuste avec Quercus prinus, espèce de chênes à feuilles persistantes.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Rhamnus prinoides s'étend essentiellement en Afrique, principalement en Afrique de l'Est et en Afrique australe. Cette espèce se rencontre de l'Érythrée et de l'Éthiopie à l'Afrique du Sud, ainsi que plus à l'ouest au Cameroun, au Congo (RDC) et en Angola[5]. Elle se rencontre aussi au Yémen[3]. 
-C'est un arbuste qui pousse dans les forêts de montagne, souvent parmi les rochers. On le trouve en particulier dans les clairières et le long des lisières des forêts, sur les berges des cours d'eau et dans les forêts riveraines[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Rhamnus prinoides s'étend essentiellement en Afrique, principalement en Afrique de l'Est et en Afrique australe. Cette espèce se rencontre de l'Érythrée et de l'Éthiopie à l'Afrique du Sud, ainsi que plus à l'ouest au Cameroun, au Congo (RDC) et en Angola. Elle se rencontre aussi au Yémen. 
+C'est un arbuste qui pousse dans les forêts de montagne, souvent parmi les rochers. On le trouve en particulier dans les clairières et le long des lisières des forêts, sur les berges des cours d'eau et dans les forêts riveraines.
 </t>
         </is>
       </c>
